--- a/Code/Results/Cases/Case_4_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_107/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.164474091804</v>
+        <v>12.68435830011695</v>
       </c>
       <c r="C2">
-        <v>7.041153717449526</v>
+        <v>7.0629453439059</v>
       </c>
       <c r="D2">
-        <v>7.045593402770132</v>
+        <v>6.010429346583905</v>
       </c>
       <c r="E2">
-        <v>7.114575499295955</v>
+        <v>11.72728366628107</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.109011866402156</v>
+        <v>3.676908119126252</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.28250256649908</v>
+        <v>26.87708286153848</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.153891953035</v>
+        <v>10.25798324992586</v>
       </c>
       <c r="L2">
-        <v>6.386925163832949</v>
+        <v>10.21497529931431</v>
       </c>
       <c r="M2">
-        <v>9.850624040942959</v>
+        <v>14.42688439708234</v>
       </c>
       <c r="N2">
-        <v>13.50021002783645</v>
+        <v>20.88460521208003</v>
       </c>
       <c r="O2">
-        <v>18.29220988481474</v>
+        <v>27.53448474598377</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.33038189173634</v>
+        <v>12.48407508107757</v>
       </c>
       <c r="C3">
-        <v>6.80582993413727</v>
+        <v>6.980345290816367</v>
       </c>
       <c r="D3">
-        <v>6.560102462578933</v>
+        <v>5.895938062469471</v>
       </c>
       <c r="E3">
-        <v>7.122064058481933</v>
+        <v>11.7505960917783</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.114012834883464</v>
+        <v>3.67882824378863</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.33718298616038</v>
+        <v>26.95276870590538</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.46779692770498</v>
+        <v>10.11136288809548</v>
       </c>
       <c r="L3">
-        <v>6.304526290823456</v>
+        <v>10.22305001863564</v>
       </c>
       <c r="M3">
-        <v>9.534643779260552</v>
+        <v>14.40153587745712</v>
       </c>
       <c r="N3">
-        <v>13.70380648123939</v>
+        <v>20.94537179274289</v>
       </c>
       <c r="O3">
-        <v>18.21778146197235</v>
+        <v>27.59573036480757</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.80882780181615</v>
+        <v>12.36205118020513</v>
       </c>
       <c r="C4">
-        <v>6.656818847469935</v>
+        <v>6.928283206292749</v>
       </c>
       <c r="D4">
-        <v>6.259008899678643</v>
+        <v>5.826257488345884</v>
       </c>
       <c r="E4">
-        <v>7.129555554132949</v>
+        <v>11.76625441815842</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.117183142828819</v>
+        <v>3.680070629292825</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.38191348761946</v>
+        <v>27.00363282934341</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.02340233536674</v>
+        <v>10.0222259354613</v>
       </c>
       <c r="L4">
-        <v>6.256295306743853</v>
+        <v>10.22940318338174</v>
       </c>
       <c r="M4">
-        <v>9.339382136474194</v>
+        <v>14.38814989319113</v>
       </c>
       <c r="N4">
-        <v>13.83172361835055</v>
+        <v>20.98444049382451</v>
       </c>
       <c r="O4">
-        <v>18.18503431383166</v>
+        <v>27.638425952848</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.59041583426259</v>
+        <v>12.31262916874295</v>
       </c>
       <c r="C5">
-        <v>6.594999120794771</v>
+        <v>6.906738527786207</v>
       </c>
       <c r="D5">
-        <v>6.146871141394133</v>
+        <v>5.798060766411136</v>
       </c>
       <c r="E5">
-        <v>7.13332228495027</v>
+        <v>11.77297375526686</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.118500658994066</v>
+        <v>3.680592908873351</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.40284894391305</v>
+        <v>27.02546426856997</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.836503101383437</v>
+        <v>9.986169672225667</v>
       </c>
       <c r="L5">
-        <v>6.237244219473546</v>
+        <v>10.23234352259543</v>
       </c>
       <c r="M5">
-        <v>9.259614087955706</v>
+        <v>14.38324706298273</v>
       </c>
       <c r="N5">
-        <v>13.88460230312259</v>
+        <v>21.00080456520439</v>
       </c>
       <c r="O5">
-        <v>18.17485164329929</v>
+        <v>27.65710326363788</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.55379815519542</v>
+        <v>12.30444291453196</v>
       </c>
       <c r="C6">
-        <v>6.584669063097953</v>
+        <v>6.903141459189125</v>
       </c>
       <c r="D6">
-        <v>6.128100294268796</v>
+        <v>5.793391994889914</v>
       </c>
       <c r="E6">
-        <v>7.133990463860725</v>
+        <v>11.77410994815562</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.118720991975418</v>
+        <v>3.680680600663902</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.40648595617033</v>
+        <v>27.0291560143087</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.805118573180421</v>
+        <v>9.980200020765952</v>
       </c>
       <c r="L6">
-        <v>6.234117496691426</v>
+        <v>10.23285299974707</v>
       </c>
       <c r="M6">
-        <v>9.246360306017312</v>
+        <v>14.38246641564698</v>
       </c>
       <c r="N6">
-        <v>13.8934287267948</v>
+        <v>21.00354861535098</v>
       </c>
       <c r="O6">
-        <v>18.17334895973536</v>
+        <v>27.66028178755862</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.80590581991823</v>
+        <v>12.36138334251216</v>
       </c>
       <c r="C7">
-        <v>6.655989507360268</v>
+        <v>6.927993966660911</v>
       </c>
       <c r="D7">
-        <v>6.257506728455088</v>
+        <v>5.82587635551483</v>
       </c>
       <c r="E7">
-        <v>7.129603481182818</v>
+        <v>11.76634366664428</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.117200807024744</v>
+        <v>3.68007760809875</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.38218499622219</v>
+        <v>27.00392278707978</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.0209052277935</v>
+        <v>10.02173852549828</v>
       </c>
       <c r="L7">
-        <v>6.256035922334966</v>
+        <v>10.2294414144835</v>
       </c>
       <c r="M7">
-        <v>9.338306995826146</v>
+        <v>14.38808153111574</v>
       </c>
       <c r="N7">
-        <v>13.83243369022023</v>
+        <v>20.98465938902253</v>
       </c>
       <c r="O7">
-        <v>18.18488431152741</v>
+        <v>27.63867266712376</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.86649290516889</v>
+        <v>12.61514203282658</v>
       </c>
       <c r="C8">
-        <v>6.960975046657859</v>
+        <v>7.034749591185789</v>
       </c>
       <c r="D8">
-        <v>6.881687161889389</v>
+        <v>5.970850504865891</v>
       </c>
       <c r="E8">
-        <v>7.116548762298172</v>
+        <v>11.7350429911083</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.110715829907522</v>
+        <v>3.677557044953704</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.29898128306967</v>
+        <v>26.90226723263567</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.92213037756057</v>
+        <v>10.20727077916874</v>
       </c>
       <c r="L8">
-        <v>6.358029757582575</v>
+        <v>10.21747021096918</v>
       </c>
       <c r="M8">
-        <v>9.7420005795835</v>
+        <v>14.41769488322584</v>
       </c>
       <c r="N8">
-        <v>13.56981890752443</v>
+        <v>20.90519345995563</v>
       </c>
       <c r="O8">
-        <v>18.26380272822077</v>
+        <v>27.55454481387629</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.92566047636396</v>
+        <v>13.11748389537095</v>
       </c>
       <c r="C9">
-        <v>7.521684511124449</v>
+        <v>7.23302687108754</v>
       </c>
       <c r="D9">
-        <v>8.00073896795265</v>
+        <v>6.258162987422088</v>
       </c>
       <c r="E9">
-        <v>7.11452249234539</v>
+        <v>11.68431274019909</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.098765037279354</v>
+        <v>3.67311518408727</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.22882612558377</v>
+        <v>26.7378050652115</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.50594121868982</v>
+        <v>10.57619977896125</v>
       </c>
       <c r="L9">
-        <v>6.576320925236943</v>
+        <v>10.20504053236593</v>
       </c>
       <c r="M9">
-        <v>10.5190572918425</v>
+        <v>14.49284305020299</v>
       </c>
       <c r="N9">
-        <v>13.07694774788591</v>
+        <v>20.76325000751403</v>
       </c>
       <c r="O9">
-        <v>18.52539261141922</v>
+        <v>27.43002546450089</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.28991240517427</v>
+        <v>13.48571397657949</v>
       </c>
       <c r="C10">
-        <v>7.909255848350846</v>
+        <v>7.371444192193659</v>
       </c>
       <c r="D10">
-        <v>8.743952183119754</v>
+        <v>6.468637313795117</v>
       </c>
       <c r="E10">
-        <v>7.128252392522418</v>
+        <v>11.65351077656414</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.090415475074274</v>
+        <v>3.670153979475363</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.24026621119411</v>
+        <v>26.63828057348887</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.55837644864931</v>
+        <v>10.84777279791606</v>
       </c>
       <c r="L10">
-        <v>6.747182434562189</v>
+        <v>10.20260604541099</v>
       </c>
       <c r="M10">
-        <v>11.0754866299443</v>
+        <v>14.558168459864</v>
       </c>
       <c r="N10">
-        <v>12.72691119305424</v>
+        <v>20.66734835844169</v>
       </c>
       <c r="O10">
-        <v>18.78799423941249</v>
+        <v>27.36328361611641</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.8781575611068</v>
+        <v>13.65228941687774</v>
       </c>
       <c r="C11">
-        <v>8.08004474779271</v>
+        <v>7.4327359075268</v>
       </c>
       <c r="D11">
-        <v>9.065359068443971</v>
+        <v>6.563761479499555</v>
       </c>
       <c r="E11">
-        <v>7.137985413233719</v>
+        <v>11.64089789271381</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.086702037303065</v>
+        <v>3.668871804493796</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.26053224610477</v>
+        <v>26.5976384668525</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.01329362030598</v>
+        <v>10.97089662308077</v>
       </c>
       <c r="L11">
-        <v>6.827039761302905</v>
+        <v>10.20294367399756</v>
       </c>
       <c r="M11">
-        <v>11.32449883111665</v>
+        <v>14.59001254628337</v>
       </c>
       <c r="N11">
-        <v>12.56996636636814</v>
+        <v>20.6255230801628</v>
       </c>
       <c r="O11">
-        <v>18.92379646674441</v>
+        <v>27.33830711869848</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.09631550430033</v>
+        <v>13.71517221907286</v>
       </c>
       <c r="C12">
-        <v>8.143911153519388</v>
+        <v>7.455696358475844</v>
       </c>
       <c r="D12">
-        <v>9.184705460258906</v>
+        <v>6.599654469616639</v>
       </c>
       <c r="E12">
-        <v>7.142187453271685</v>
+        <v>11.6363224845685</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.085307309069258</v>
+        <v>3.668395558592724</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.27048834967927</v>
+        <v>26.58291505079803</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.1821596450852</v>
+        <v>11.0174174148229</v>
       </c>
       <c r="L12">
-        <v>6.857573547275939</v>
+        <v>10.20327839958276</v>
       </c>
       <c r="M12">
-        <v>11.41813405539887</v>
+        <v>14.6023704394739</v>
       </c>
       <c r="N12">
-        <v>12.51083650633599</v>
+        <v>20.60994259762157</v>
       </c>
       <c r="O12">
-        <v>18.97765139899345</v>
+        <v>27.32962422802547</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.0495348677193</v>
+        <v>13.70163893694597</v>
       </c>
       <c r="C13">
-        <v>8.130192473055603</v>
+        <v>7.450762638575998</v>
       </c>
       <c r="D13">
-        <v>9.15910660943717</v>
+        <v>6.591930586010158</v>
       </c>
       <c r="E13">
-        <v>7.141259265719244</v>
+        <v>11.63729895518363</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.085607190676555</v>
+        <v>3.668497714393912</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.26824077996929</v>
+        <v>26.58605633091953</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.14594211544363</v>
+        <v>11.00740361462377</v>
       </c>
       <c r="L13">
-        <v>6.850984696051396</v>
+        <v>10.20319712537112</v>
       </c>
       <c r="M13">
-        <v>11.39799839746172</v>
+        <v>14.59969574735173</v>
       </c>
       <c r="N13">
-        <v>12.52355821073829</v>
+        <v>20.61328668338883</v>
       </c>
       <c r="O13">
-        <v>18.96594349282032</v>
+        <v>27.33145975687865</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.89619736665396</v>
+        <v>13.65746708766509</v>
       </c>
       <c r="C14">
-        <v>8.085315325161201</v>
+        <v>7.434629923493863</v>
       </c>
       <c r="D14">
-        <v>9.075224924821464</v>
+        <v>6.56671720862844</v>
       </c>
       <c r="E14">
-        <v>7.138320683467428</v>
+        <v>11.64051744861154</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.086587066619999</v>
+        <v>3.668832437611773</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.26130494100468</v>
+        <v>26.59641379325706</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.02725432397837</v>
+        <v>10.97472623659541</v>
       </c>
       <c r="L14">
-        <v>6.829545983771435</v>
+        <v>10.20296707164186</v>
       </c>
       <c r="M14">
-        <v>11.33221585169335</v>
+        <v>14.59102327993116</v>
       </c>
       <c r="N14">
-        <v>12.565095831703</v>
+        <v>20.62423610330848</v>
       </c>
       <c r="O14">
-        <v>18.92817800986563</v>
+        <v>27.33757723245096</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.80167664122812</v>
+        <v>13.63038328946166</v>
       </c>
       <c r="C15">
-        <v>8.057721262654963</v>
+        <v>7.424715444089609</v>
       </c>
       <c r="D15">
-        <v>9.023538267838447</v>
+        <v>6.551255431821209</v>
       </c>
       <c r="E15">
-        <v>7.136588405129086</v>
+        <v>11.64251500994283</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.087188740325043</v>
+        <v>3.669038673208887</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.25735716188588</v>
+        <v>26.60284490608292</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.9541125666498</v>
+        <v>10.95469564439874</v>
       </c>
       <c r="L15">
-        <v>6.816452004807216</v>
+        <v>10.20285306909211</v>
       </c>
       <c r="M15">
-        <v>11.29183426917282</v>
+        <v>14.58574990829392</v>
       </c>
       <c r="N15">
-        <v>12.59057728300677</v>
+        <v>20.63097648486026</v>
       </c>
       <c r="O15">
-        <v>18.90536425961745</v>
+        <v>27.34142533406978</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.25082274586921</v>
+        <v>13.47480377971687</v>
       </c>
       <c r="C16">
-        <v>7.89798202741831</v>
+        <v>7.367404192581141</v>
       </c>
       <c r="D16">
-        <v>8.722614783223454</v>
+        <v>6.462404830467028</v>
       </c>
       <c r="E16">
-        <v>7.127687760617974</v>
+        <v>11.65436318002403</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.090659802633038</v>
+        <v>3.670239074523598</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.23925473662331</v>
+        <v>26.64102990797104</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.52816900617433</v>
+        <v>10.83971422592711</v>
       </c>
       <c r="L16">
-        <v>6.742005345661588</v>
+        <v>10.20261298191669</v>
       </c>
       <c r="M16">
-        <v>11.05912424014969</v>
+        <v>14.5561296170455</v>
       </c>
       <c r="N16">
-        <v>12.73721165262404</v>
+        <v>20.67011788076855</v>
       </c>
       <c r="O16">
-        <v>18.77945498702934</v>
+        <v>27.36502432084773</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.90464254354213</v>
+        <v>13.37907708604037</v>
       </c>
       <c r="C17">
-        <v>7.798562113925598</v>
+        <v>7.331810415045164</v>
       </c>
       <c r="D17">
-        <v>8.533759742431526</v>
+        <v>6.407710208904083</v>
       </c>
       <c r="E17">
-        <v>7.123131245278305</v>
+        <v>11.66198972840414</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.092810408031097</v>
+        <v>3.670992069762534</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.23208919251968</v>
+        <v>26.66564212915897</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.26077793102724</v>
+        <v>10.76903874557374</v>
       </c>
       <c r="L17">
-        <v>6.696871338850224</v>
+        <v>10.20283518299462</v>
       </c>
       <c r="M17">
-        <v>10.91525898345392</v>
+        <v>14.53849872557474</v>
       </c>
       <c r="N17">
-        <v>12.82773422981907</v>
+        <v>20.69459030359267</v>
       </c>
       <c r="O17">
-        <v>18.70645733560607</v>
+        <v>27.38088136240043</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.7024795471624</v>
+        <v>13.323933211102</v>
       </c>
       <c r="C18">
-        <v>7.740859441985609</v>
+        <v>7.311180644703867</v>
       </c>
       <c r="D18">
-        <v>8.423562677457308</v>
+        <v>6.376195010539579</v>
       </c>
       <c r="E18">
-        <v>7.120837798039862</v>
+        <v>11.66650802853191</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.094055409113329</v>
+        <v>3.671431283327648</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.22937842576226</v>
+        <v>26.68023437807448</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.10473570200842</v>
+        <v>10.72835144385584</v>
       </c>
       <c r="L18">
-        <v>6.671112848567491</v>
+        <v>10.20309906652381</v>
       </c>
       <c r="M18">
-        <v>10.83212811021987</v>
+        <v>14.52855854813875</v>
       </c>
       <c r="N18">
-        <v>12.88001755282744</v>
+        <v>20.70883576582952</v>
       </c>
       <c r="O18">
-        <v>18.66600483468078</v>
+        <v>27.39050870963795</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.63350524684759</v>
+        <v>13.30524985357978</v>
       </c>
       <c r="C19">
-        <v>7.721233679276307</v>
+        <v>7.304169029751921</v>
       </c>
       <c r="D19">
-        <v>8.385980671806744</v>
+        <v>6.365516059878897</v>
       </c>
       <c r="E19">
-        <v>7.120117044190115</v>
+        <v>11.66806047990997</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.094478345631396</v>
+        <v>3.671581044389352</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.22869938222351</v>
+        <v>26.68524991310171</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.05151599338015</v>
+        <v>10.71457048490745</v>
       </c>
       <c r="L19">
-        <v>6.66242645759197</v>
+        <v>10.20321181168365</v>
       </c>
       <c r="M19">
-        <v>10.80391785242051</v>
+        <v>14.52522763349581</v>
       </c>
       <c r="N19">
-        <v>12.89775789029373</v>
+        <v>20.71368819301333</v>
       </c>
       <c r="O19">
-        <v>18.65256926803666</v>
+        <v>27.39385537723761</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.9418092112754</v>
+        <v>13.38927654456003</v>
       </c>
       <c r="C20">
-        <v>7.809199360862324</v>
+        <v>7.335615762821844</v>
       </c>
       <c r="D20">
-        <v>8.554026190895019</v>
+        <v>6.413538660892113</v>
       </c>
       <c r="E20">
-        <v>7.123582307973908</v>
+        <v>11.66116424033655</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.092580646492127</v>
+        <v>3.670911280037917</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.23270514355461</v>
+        <v>26.66297699114975</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.28947443420266</v>
+        <v>10.77656638368905</v>
       </c>
       <c r="L20">
-        <v>6.701655182355269</v>
+        <v>10.20279745208208</v>
       </c>
       <c r="M20">
-        <v>10.93061389759787</v>
+        <v>14.54035484529683</v>
       </c>
       <c r="N20">
-        <v>12.8180756683182</v>
+        <v>20.69196763048253</v>
       </c>
       <c r="O20">
-        <v>18.71406872925371</v>
+        <v>27.37914089485175</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.94136063635972</v>
+        <v>13.67044721854563</v>
       </c>
       <c r="C21">
-        <v>8.098518838633735</v>
+        <v>7.439375327715288</v>
       </c>
       <c r="D21">
-        <v>9.099926859843841</v>
+        <v>6.574126776592381</v>
       </c>
       <c r="E21">
-        <v>7.139169683476456</v>
+        <v>11.63956665195374</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.086298948027365</v>
+        <v>3.668733869631397</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.26327930672932</v>
+        <v>26.59335345095505</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.06220787502119</v>
+        <v>10.98432752538874</v>
       </c>
       <c r="L21">
-        <v>6.835835187534276</v>
+        <v>10.20302903733481</v>
       </c>
       <c r="M21">
-        <v>11.3515562023906</v>
+        <v>14.59356252757619</v>
       </c>
       <c r="N21">
-        <v>12.55288726157828</v>
+        <v>20.62101300434918</v>
       </c>
       <c r="O21">
-        <v>18.93920409439946</v>
+        <v>27.33575933806475</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.56785336361058</v>
+        <v>13.85304113993483</v>
       </c>
       <c r="C22">
-        <v>8.282895092140908</v>
+        <v>7.505730835055881</v>
       </c>
       <c r="D22">
-        <v>9.442946233301551</v>
+        <v>6.678314930382746</v>
       </c>
       <c r="E22">
-        <v>7.152373621192456</v>
+        <v>11.62662171631928</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.082259980641603</v>
+        <v>3.667364910797875</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.29661612551148</v>
+        <v>26.55173778096563</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.54742464050257</v>
+        <v>11.11948879213105</v>
       </c>
       <c r="L22">
-        <v>6.925234976787571</v>
+        <v>10.20438571697099</v>
       </c>
       <c r="M22">
-        <v>11.62279253351884</v>
+        <v>14.63007764056293</v>
       </c>
       <c r="N22">
-        <v>12.38131633365026</v>
+        <v>20.57614244714605</v>
       </c>
       <c r="O22">
-        <v>19.10053893581112</v>
+        <v>27.31192548858829</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.23591317010264</v>
+        <v>13.75571376234766</v>
       </c>
       <c r="C23">
-        <v>8.184924456405618</v>
+        <v>7.470451732869939</v>
       </c>
       <c r="D23">
-        <v>9.261117055429837</v>
+        <v>6.622790167813363</v>
       </c>
       <c r="E23">
-        <v>7.145045462798111</v>
+        <v>11.6334237112137</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.084409822287034</v>
+        <v>3.668090614216175</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.2775630017077</v>
+        <v>26.57359291199747</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.29025772871525</v>
+        <v>11.04742170419217</v>
       </c>
       <c r="L23">
-        <v>6.877368736223145</v>
+        <v>10.20355167220371</v>
       </c>
       <c r="M23">
-        <v>11.47840335459092</v>
+        <v>14.61043183759232</v>
       </c>
       <c r="N23">
-        <v>12.47273671479788</v>
+        <v>20.59995360584947</v>
       </c>
       <c r="O23">
-        <v>19.01310723006945</v>
+        <v>27.32423239401873</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.92501594346547</v>
+        <v>13.38466570517593</v>
       </c>
       <c r="C24">
-        <v>7.804391957458414</v>
+        <v>7.33389588287382</v>
       </c>
       <c r="D24">
-        <v>8.544868783740258</v>
+        <v>6.410903834459177</v>
       </c>
       <c r="E24">
-        <v>7.123377367758957</v>
+        <v>11.66153702702257</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.092684494875535</v>
+        <v>3.670947785424319</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.23242229275633</v>
+        <v>26.66418052217811</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.27650795949586</v>
+        <v>10.77316330654079</v>
       </c>
       <c r="L24">
-        <v>6.69949181499346</v>
+        <v>10.20281408610772</v>
       </c>
       <c r="M24">
-        <v>10.92367324630927</v>
+        <v>14.53951508236982</v>
       </c>
       <c r="N24">
-        <v>12.82244155223321</v>
+        <v>20.69315279284987</v>
       </c>
       <c r="O24">
-        <v>18.71062290590918</v>
+        <v>27.37992616878642</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.39420777314474</v>
+        <v>12.98147065124348</v>
       </c>
       <c r="C25">
-        <v>7.374183450564227</v>
+        <v>7.180626280940136</v>
       </c>
       <c r="D25">
-        <v>7.712017557605827</v>
+        <v>6.180372460685992</v>
       </c>
       <c r="E25">
-        <v>7.112459458250036</v>
+        <v>11.69689878497644</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.10191965891009</v>
+        <v>3.674263523000105</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.23720647116468</v>
+        <v>26.77855760429257</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.09708000754809</v>
+        <v>10.4761182712445</v>
       </c>
       <c r="L25">
-        <v>6.515376280801985</v>
+        <v>10.20722399566942</v>
       </c>
       <c r="M25">
-        <v>10.31101852795164</v>
+        <v>14.47071447657761</v>
       </c>
       <c r="N25">
-        <v>13.20805602907453</v>
+        <v>20.80017117038467</v>
       </c>
       <c r="O25">
-        <v>18.44262742292318</v>
+        <v>27.45937124179837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_107/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.68435830011695</v>
+        <v>13.16447409180397</v>
       </c>
       <c r="C2">
-        <v>7.0629453439059</v>
+        <v>7.041153717449633</v>
       </c>
       <c r="D2">
-        <v>6.010429346583905</v>
+        <v>7.045593402770088</v>
       </c>
       <c r="E2">
-        <v>11.72728366628107</v>
+        <v>7.114575499296012</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.676908119126252</v>
+        <v>2.10901186640229</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.87708286153848</v>
+        <v>17.28250256649908</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.25798324992586</v>
+        <v>11.15389195303497</v>
       </c>
       <c r="L2">
-        <v>10.21497529931431</v>
+        <v>6.386925163832956</v>
       </c>
       <c r="M2">
-        <v>14.42688439708234</v>
+        <v>9.850624040942975</v>
       </c>
       <c r="N2">
-        <v>20.88460521208003</v>
+        <v>13.50021002783638</v>
       </c>
       <c r="O2">
-        <v>27.53448474598377</v>
+        <v>18.29220988481469</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.48407508107757</v>
+        <v>12.33038189173637</v>
       </c>
       <c r="C3">
-        <v>6.980345290816367</v>
+        <v>6.805829934137371</v>
       </c>
       <c r="D3">
-        <v>5.895938062469471</v>
+        <v>6.560102462578916</v>
       </c>
       <c r="E3">
-        <v>11.7505960917783</v>
+        <v>7.122064058481935</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.67882824378863</v>
+        <v>2.114012834883332</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.95276870590538</v>
+        <v>17.33718298616044</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.11136288809548</v>
+        <v>10.467796927705</v>
       </c>
       <c r="L3">
-        <v>10.22305001863564</v>
+        <v>6.304526290823411</v>
       </c>
       <c r="M3">
-        <v>14.40153587745712</v>
+        <v>9.534643779260552</v>
       </c>
       <c r="N3">
-        <v>20.94537179274289</v>
+        <v>13.70380648123939</v>
       </c>
       <c r="O3">
-        <v>27.59573036480757</v>
+        <v>18.21778146197239</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.36205118020513</v>
+        <v>11.80882780181613</v>
       </c>
       <c r="C4">
-        <v>6.928283206292749</v>
+        <v>6.656818847469481</v>
       </c>
       <c r="D4">
-        <v>5.826257488345884</v>
+        <v>6.259008899678683</v>
       </c>
       <c r="E4">
-        <v>11.76625441815842</v>
+        <v>7.129555554132834</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.680070629292825</v>
+        <v>2.11718314282882</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.00363282934341</v>
+        <v>17.38191348761939</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.0222259354613</v>
+        <v>10.02340233536673</v>
       </c>
       <c r="L4">
-        <v>10.22940318338174</v>
+        <v>6.256295306743962</v>
       </c>
       <c r="M4">
-        <v>14.38814989319113</v>
+        <v>9.339382136474205</v>
       </c>
       <c r="N4">
-        <v>20.98444049382451</v>
+        <v>13.83172361835055</v>
       </c>
       <c r="O4">
-        <v>27.638425952848</v>
+        <v>18.18503431383175</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.31262916874295</v>
+        <v>11.59041583426258</v>
       </c>
       <c r="C5">
-        <v>6.906738527786207</v>
+        <v>6.59499912079453</v>
       </c>
       <c r="D5">
-        <v>5.798060766411136</v>
+        <v>6.146871141394152</v>
       </c>
       <c r="E5">
-        <v>11.77297375526686</v>
+        <v>7.133322284950213</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.680592908873351</v>
+        <v>2.118500658993932</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.02546426856997</v>
+        <v>17.40284894391298</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.986169672225667</v>
+        <v>9.836503101383402</v>
       </c>
       <c r="L5">
-        <v>10.23234352259543</v>
+        <v>6.237244219473598</v>
       </c>
       <c r="M5">
-        <v>14.38324706298273</v>
+        <v>9.259614087955709</v>
       </c>
       <c r="N5">
-        <v>21.00080456520439</v>
+        <v>13.88460230312253</v>
       </c>
       <c r="O5">
-        <v>27.65710326363788</v>
+        <v>18.1748516432993</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.30444291453196</v>
+        <v>11.55379815519544</v>
       </c>
       <c r="C6">
-        <v>6.903141459189125</v>
+        <v>6.584669063097906</v>
       </c>
       <c r="D6">
-        <v>5.793391994889914</v>
+        <v>6.128100294268759</v>
       </c>
       <c r="E6">
-        <v>11.77410994815562</v>
+        <v>7.133990463860669</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.680680600663902</v>
+        <v>2.118720991975553</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.0291560143087</v>
+        <v>17.40648595617043</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.980200020765952</v>
+        <v>9.805118573180406</v>
       </c>
       <c r="L6">
-        <v>10.23285299974707</v>
+        <v>6.234117496691422</v>
       </c>
       <c r="M6">
-        <v>14.38246641564698</v>
+        <v>9.246360306017337</v>
       </c>
       <c r="N6">
-        <v>21.00354861535098</v>
+        <v>13.89342872679487</v>
       </c>
       <c r="O6">
-        <v>27.66028178755862</v>
+        <v>18.1733489597355</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.36138334251216</v>
+        <v>11.80590581991823</v>
       </c>
       <c r="C7">
-        <v>6.927993966660911</v>
+        <v>6.655989507360231</v>
       </c>
       <c r="D7">
-        <v>5.82587635551483</v>
+        <v>6.25750672845508</v>
       </c>
       <c r="E7">
-        <v>11.76634366664428</v>
+        <v>7.129603481182711</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.68007760809875</v>
+        <v>2.11720080702448</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.00392278707978</v>
+        <v>17.3821849962222</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.02173852549828</v>
+        <v>10.02090522779344</v>
       </c>
       <c r="L7">
-        <v>10.2294414144835</v>
+        <v>6.256035922334882</v>
       </c>
       <c r="M7">
-        <v>14.38808153111574</v>
+        <v>9.33830699582613</v>
       </c>
       <c r="N7">
-        <v>20.98465938902253</v>
+        <v>13.8324336902202</v>
       </c>
       <c r="O7">
-        <v>27.63867266712376</v>
+        <v>18.18488431152741</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.61514203282658</v>
+        <v>12.86649290516893</v>
       </c>
       <c r="C8">
-        <v>7.034749591185789</v>
+        <v>6.960975046657937</v>
       </c>
       <c r="D8">
-        <v>5.970850504865891</v>
+        <v>6.88168716188937</v>
       </c>
       <c r="E8">
-        <v>11.7350429911083</v>
+        <v>7.116548762298231</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.677557044953704</v>
+        <v>2.110715829907523</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.90226723263567</v>
+        <v>17.29898128306993</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.20727077916874</v>
+        <v>10.9221303775605</v>
       </c>
       <c r="L8">
-        <v>10.21747021096918</v>
+        <v>6.358029757582588</v>
       </c>
       <c r="M8">
-        <v>14.41769488322584</v>
+        <v>9.742000579583536</v>
       </c>
       <c r="N8">
-        <v>20.90519345995563</v>
+        <v>13.56981890752449</v>
       </c>
       <c r="O8">
-        <v>27.55454481387629</v>
+        <v>18.26380272822096</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.11748389537095</v>
+        <v>14.92566047636394</v>
       </c>
       <c r="C9">
-        <v>7.23302687108754</v>
+        <v>7.521684511124429</v>
       </c>
       <c r="D9">
-        <v>6.258162987422088</v>
+        <v>8.000738967952714</v>
       </c>
       <c r="E9">
-        <v>11.68431274019909</v>
+        <v>7.114522492345395</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.67311518408727</v>
+        <v>2.098765037279489</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.7378050652115</v>
+        <v>17.22882612558389</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.57619977896125</v>
+        <v>12.5059412186898</v>
       </c>
       <c r="L9">
-        <v>10.20504053236593</v>
+        <v>6.57632092523697</v>
       </c>
       <c r="M9">
-        <v>14.49284305020299</v>
+        <v>10.51905729184251</v>
       </c>
       <c r="N9">
-        <v>20.76325000751403</v>
+        <v>13.07694774788598</v>
       </c>
       <c r="O9">
-        <v>27.43002546450089</v>
+        <v>18.52539261141936</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.48571397657949</v>
+        <v>16.28991240517436</v>
       </c>
       <c r="C10">
-        <v>7.371444192193659</v>
+        <v>7.909255848351061</v>
       </c>
       <c r="D10">
-        <v>6.468637313795117</v>
+        <v>8.743952183119758</v>
       </c>
       <c r="E10">
-        <v>11.65351077656414</v>
+        <v>7.128252392522477</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.670153979475363</v>
+        <v>2.090415475074274</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.63828057348887</v>
+        <v>17.24026621119399</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.84777279791606</v>
+        <v>13.55837644864943</v>
       </c>
       <c r="L10">
-        <v>10.20260604541099</v>
+        <v>6.747182434562184</v>
       </c>
       <c r="M10">
-        <v>14.558168459864</v>
+        <v>11.07548662994426</v>
       </c>
       <c r="N10">
-        <v>20.66734835844169</v>
+        <v>12.72691119305424</v>
       </c>
       <c r="O10">
-        <v>27.36328361611641</v>
+        <v>18.7879942394123</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.65228941687774</v>
+        <v>16.87815756110683</v>
       </c>
       <c r="C11">
-        <v>7.4327359075268</v>
+        <v>8.080044747792808</v>
       </c>
       <c r="D11">
-        <v>6.563761479499555</v>
+        <v>9.065359068444014</v>
       </c>
       <c r="E11">
-        <v>11.64089789271381</v>
+        <v>7.137985413233778</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.668871804493796</v>
+        <v>2.086702037303199</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.5976384668525</v>
+        <v>17.26053224610475</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.97089662308077</v>
+        <v>14.01329362030604</v>
       </c>
       <c r="L11">
-        <v>10.20294367399756</v>
+        <v>6.827039761302885</v>
       </c>
       <c r="M11">
-        <v>14.59001254628337</v>
+        <v>11.32449883111664</v>
       </c>
       <c r="N11">
-        <v>20.6255230801628</v>
+        <v>12.56996636636814</v>
       </c>
       <c r="O11">
-        <v>27.33830711869848</v>
+        <v>18.92379646674433</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.71517221907286</v>
+        <v>17.09631550430034</v>
       </c>
       <c r="C12">
-        <v>7.455696358475844</v>
+        <v>8.143911153519086</v>
       </c>
       <c r="D12">
-        <v>6.599654469616639</v>
+        <v>9.184705460258868</v>
       </c>
       <c r="E12">
-        <v>11.6363224845685</v>
+        <v>7.142187453271578</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.668395558592724</v>
+        <v>2.085307309069526</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.58291505079803</v>
+        <v>17.27048834967933</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.0174174148229</v>
+        <v>14.18215964508517</v>
       </c>
       <c r="L12">
-        <v>10.20327839958276</v>
+        <v>6.857573547275944</v>
       </c>
       <c r="M12">
-        <v>14.6023704394739</v>
+        <v>11.41813405539887</v>
       </c>
       <c r="N12">
-        <v>20.60994259762157</v>
+        <v>12.51083650633602</v>
       </c>
       <c r="O12">
-        <v>27.32962422802547</v>
+        <v>18.97765139899357</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.70163893694597</v>
+        <v>17.04953486771933</v>
       </c>
       <c r="C13">
-        <v>7.450762638575998</v>
+        <v>8.130192473055708</v>
       </c>
       <c r="D13">
-        <v>6.591930586010158</v>
+        <v>9.159106609437259</v>
       </c>
       <c r="E13">
-        <v>11.63729895518363</v>
+        <v>7.141259265719293</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.668497714393912</v>
+        <v>2.085607190676555</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.58605633091953</v>
+        <v>17.26824077996933</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.00740361462377</v>
+        <v>14.14594211544365</v>
       </c>
       <c r="L13">
-        <v>10.20319712537112</v>
+        <v>6.850984696051375</v>
       </c>
       <c r="M13">
-        <v>14.59969574735173</v>
+        <v>11.39799839746172</v>
       </c>
       <c r="N13">
-        <v>20.61328668338883</v>
+        <v>12.52355821073833</v>
       </c>
       <c r="O13">
-        <v>27.33145975687865</v>
+        <v>18.96594349282033</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.65746708766509</v>
+        <v>16.896197366654</v>
       </c>
       <c r="C14">
-        <v>7.434629923493863</v>
+        <v>8.08531532516119</v>
       </c>
       <c r="D14">
-        <v>6.56671720862844</v>
+        <v>9.075224924821384</v>
       </c>
       <c r="E14">
-        <v>11.64051744861154</v>
+        <v>7.13832068346749</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.668832437611773</v>
+        <v>2.086587066620135</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.59641379325706</v>
+        <v>17.26130494100457</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.97472623659541</v>
+        <v>14.0272543239784</v>
       </c>
       <c r="L14">
-        <v>10.20296707164186</v>
+        <v>6.829545983771414</v>
       </c>
       <c r="M14">
-        <v>14.59102327993116</v>
+        <v>11.33221585169334</v>
       </c>
       <c r="N14">
-        <v>20.62423610330848</v>
+        <v>12.56509583170294</v>
       </c>
       <c r="O14">
-        <v>27.33757723245096</v>
+        <v>18.92817800986551</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.63038328946166</v>
+        <v>16.80167664122811</v>
       </c>
       <c r="C15">
-        <v>7.424715444089609</v>
+        <v>8.057721262655154</v>
       </c>
       <c r="D15">
-        <v>6.551255431821209</v>
+        <v>9.023538267838433</v>
       </c>
       <c r="E15">
-        <v>11.64251500994283</v>
+        <v>7.136588405129086</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.669038673208887</v>
+        <v>2.087188740325175</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.60284490608292</v>
+        <v>17.25735716188581</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.95469564439874</v>
+        <v>13.95411256664983</v>
       </c>
       <c r="L15">
-        <v>10.20285306909211</v>
+        <v>6.816452004807179</v>
       </c>
       <c r="M15">
-        <v>14.58574990829392</v>
+        <v>11.29183426917282</v>
       </c>
       <c r="N15">
-        <v>20.63097648486026</v>
+        <v>12.5905772830067</v>
       </c>
       <c r="O15">
-        <v>27.34142533406978</v>
+        <v>18.90536425961737</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.47480377971687</v>
+        <v>16.25082274586929</v>
       </c>
       <c r="C16">
-        <v>7.367404192581141</v>
+        <v>7.897982027418542</v>
       </c>
       <c r="D16">
-        <v>6.462404830467028</v>
+        <v>8.72261478322341</v>
       </c>
       <c r="E16">
-        <v>11.65436318002403</v>
+        <v>7.127687760617974</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.670239074523598</v>
+        <v>2.090659802633306</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.64102990797104</v>
+        <v>17.23925473662306</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.83971422592711</v>
+        <v>13.52816900617445</v>
       </c>
       <c r="L16">
-        <v>10.20261298191669</v>
+        <v>6.742005345661554</v>
       </c>
       <c r="M16">
-        <v>14.5561296170455</v>
+        <v>11.05912424014964</v>
       </c>
       <c r="N16">
-        <v>20.67011788076855</v>
+        <v>12.73721165262384</v>
       </c>
       <c r="O16">
-        <v>27.36502432084773</v>
+        <v>18.77945498702908</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.37907708604037</v>
+        <v>15.90464254354217</v>
       </c>
       <c r="C17">
-        <v>7.331810415045164</v>
+        <v>7.798562113925576</v>
       </c>
       <c r="D17">
-        <v>6.407710208904083</v>
+        <v>8.533759742431434</v>
       </c>
       <c r="E17">
-        <v>11.66198972840414</v>
+        <v>7.12313124527826</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.670992069762534</v>
+        <v>2.092810408031097</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.66564212915897</v>
+        <v>17.23208919251963</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.76903874557374</v>
+        <v>13.26077793102728</v>
       </c>
       <c r="L17">
-        <v>10.20283518299462</v>
+        <v>6.696871338850189</v>
       </c>
       <c r="M17">
-        <v>14.53849872557474</v>
+        <v>10.91525898345391</v>
       </c>
       <c r="N17">
-        <v>20.69459030359267</v>
+        <v>12.82773422981907</v>
       </c>
       <c r="O17">
-        <v>27.38088136240043</v>
+        <v>18.70645733560603</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.323933211102</v>
+        <v>15.70247954716249</v>
       </c>
       <c r="C18">
-        <v>7.311180644703867</v>
+        <v>7.740859441985721</v>
       </c>
       <c r="D18">
-        <v>6.376195010539579</v>
+        <v>8.42356267745731</v>
       </c>
       <c r="E18">
-        <v>11.66650802853191</v>
+        <v>7.120837798039862</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.671431283327648</v>
+        <v>2.094055409113462</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.68023437807448</v>
+        <v>17.22937842576212</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.72835144385584</v>
+        <v>13.10473570200848</v>
       </c>
       <c r="L18">
-        <v>10.20309906652381</v>
+        <v>6.671112848567453</v>
       </c>
       <c r="M18">
-        <v>14.52855854813875</v>
+        <v>10.83212811021983</v>
       </c>
       <c r="N18">
-        <v>20.70883576582952</v>
+        <v>12.88001755282734</v>
       </c>
       <c r="O18">
-        <v>27.39050870963795</v>
+        <v>18.66600483468068</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.30524985357978</v>
+        <v>15.63350524684753</v>
       </c>
       <c r="C19">
-        <v>7.304169029751921</v>
+        <v>7.721233679276307</v>
       </c>
       <c r="D19">
-        <v>6.365516059878897</v>
+        <v>8.385980671806735</v>
       </c>
       <c r="E19">
-        <v>11.66806047990997</v>
+        <v>7.120117044190165</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.671581044389352</v>
+        <v>2.094478345631531</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.68524991310171</v>
+        <v>17.22869938222351</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.71457048490745</v>
+        <v>13.0515159933801</v>
       </c>
       <c r="L19">
-        <v>10.20321181168365</v>
+        <v>6.662426457592013</v>
       </c>
       <c r="M19">
-        <v>14.52522763349581</v>
+        <v>10.80391785242055</v>
       </c>
       <c r="N19">
-        <v>20.71368819301333</v>
+        <v>12.89775789029363</v>
       </c>
       <c r="O19">
-        <v>27.39385537723761</v>
+        <v>18.65256926803666</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.38927654456003</v>
+        <v>15.94180921127542</v>
       </c>
       <c r="C20">
-        <v>7.335615762821844</v>
+        <v>7.809199360862228</v>
       </c>
       <c r="D20">
-        <v>6.413538660892113</v>
+        <v>8.554026190894911</v>
       </c>
       <c r="E20">
-        <v>11.66116424033655</v>
+        <v>7.12358230797385</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.670911280037917</v>
+        <v>2.092580646491993</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.66297699114975</v>
+        <v>17.23270514355472</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.77656638368905</v>
+        <v>13.28947443420261</v>
       </c>
       <c r="L20">
-        <v>10.20279745208208</v>
+        <v>6.701655182355267</v>
       </c>
       <c r="M20">
-        <v>14.54035484529683</v>
+        <v>10.93061389759787</v>
       </c>
       <c r="N20">
-        <v>20.69196763048253</v>
+        <v>12.81807566831834</v>
       </c>
       <c r="O20">
-        <v>27.37914089485175</v>
+        <v>18.71406872925384</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.67044721854563</v>
+        <v>16.94136063635971</v>
       </c>
       <c r="C21">
-        <v>7.439375327715288</v>
+        <v>8.098518838633746</v>
       </c>
       <c r="D21">
-        <v>6.574126776592381</v>
+        <v>9.099926859843771</v>
       </c>
       <c r="E21">
-        <v>11.63956665195374</v>
+        <v>7.139169683476459</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.668733869631397</v>
+        <v>2.086298948027499</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.59335345095505</v>
+        <v>17.26327930672931</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.98432752538874</v>
+        <v>14.06220787502117</v>
       </c>
       <c r="L21">
-        <v>10.20302903733481</v>
+        <v>6.83583518753428</v>
       </c>
       <c r="M21">
-        <v>14.59356252757619</v>
+        <v>11.35155620239062</v>
       </c>
       <c r="N21">
-        <v>20.62101300434918</v>
+        <v>12.55288726157821</v>
       </c>
       <c r="O21">
-        <v>27.33575933806475</v>
+        <v>18.93920409439945</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.85304113993483</v>
+        <v>17.56785336361058</v>
       </c>
       <c r="C22">
-        <v>7.505730835055881</v>
+        <v>8.282895092141111</v>
       </c>
       <c r="D22">
-        <v>6.678314930382746</v>
+        <v>9.442946233301591</v>
       </c>
       <c r="E22">
-        <v>11.62662171631928</v>
+        <v>7.152373621192552</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.667364910797875</v>
+        <v>2.082259980641737</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.55173778096563</v>
+        <v>17.29661612551155</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.11948879213105</v>
+        <v>14.5474246405026</v>
       </c>
       <c r="L22">
-        <v>10.20438571697099</v>
+        <v>6.925234976787552</v>
       </c>
       <c r="M22">
-        <v>14.63007764056293</v>
+        <v>11.62279253351885</v>
       </c>
       <c r="N22">
-        <v>20.57614244714605</v>
+        <v>12.3813163336503</v>
       </c>
       <c r="O22">
-        <v>27.31192548858829</v>
+        <v>19.10053893581113</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.75571376234766</v>
+        <v>17.2359131701026</v>
       </c>
       <c r="C23">
-        <v>7.470451732869939</v>
+        <v>8.184924456405589</v>
       </c>
       <c r="D23">
-        <v>6.622790167813363</v>
+        <v>9.261117055429843</v>
       </c>
       <c r="E23">
-        <v>11.6334237112137</v>
+        <v>7.145045462798115</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.668090614216175</v>
+        <v>2.084409822287167</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.57359291199747</v>
+        <v>17.27756300170766</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.04742170419217</v>
+        <v>14.29025772871521</v>
       </c>
       <c r="L23">
-        <v>10.20355167220371</v>
+        <v>6.877368736223155</v>
       </c>
       <c r="M23">
-        <v>14.61043183759232</v>
+        <v>11.47840335459093</v>
       </c>
       <c r="N23">
-        <v>20.59995360584947</v>
+        <v>12.47273671479785</v>
       </c>
       <c r="O23">
-        <v>27.32423239401873</v>
+        <v>19.01310723006946</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.38466570517593</v>
+        <v>15.9250159434655</v>
       </c>
       <c r="C24">
-        <v>7.33389588287382</v>
+        <v>7.804391957458401</v>
       </c>
       <c r="D24">
-        <v>6.410903834459177</v>
+        <v>8.544868783740309</v>
       </c>
       <c r="E24">
-        <v>11.66153702702257</v>
+        <v>7.123377367758857</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.670947785424319</v>
+        <v>2.092684494875402</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.66418052217811</v>
+        <v>17.23242229275619</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.77316330654079</v>
+        <v>13.27650795949585</v>
       </c>
       <c r="L24">
-        <v>10.20281408610772</v>
+        <v>6.69949181499344</v>
       </c>
       <c r="M24">
-        <v>14.53951508236982</v>
+        <v>10.92367324630926</v>
       </c>
       <c r="N24">
-        <v>20.69315279284987</v>
+        <v>12.82244155223304</v>
       </c>
       <c r="O24">
-        <v>27.37992616878642</v>
+        <v>18.71062290590904</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.98147065124348</v>
+        <v>14.39420777314476</v>
       </c>
       <c r="C25">
-        <v>7.180626280940136</v>
+        <v>7.374183450564324</v>
       </c>
       <c r="D25">
-        <v>6.180372460685992</v>
+        <v>7.712017557605755</v>
       </c>
       <c r="E25">
-        <v>11.69689878497644</v>
+        <v>7.112459458250036</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.674263523000105</v>
+        <v>2.101919658910091</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.77855760429257</v>
+        <v>17.2372064711646</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.4761182712445</v>
+        <v>12.09708000754814</v>
       </c>
       <c r="L25">
-        <v>10.20722399566942</v>
+        <v>6.515376280801958</v>
       </c>
       <c r="M25">
-        <v>14.47071447657761</v>
+        <v>10.31101852795162</v>
       </c>
       <c r="N25">
-        <v>20.80017117038467</v>
+        <v>13.20805602907446</v>
       </c>
       <c r="O25">
-        <v>27.45937124179837</v>
+        <v>18.44262742292308</v>
       </c>
     </row>
   </sheetData>
